--- a/power_bi/PE_PowerBI_2026.xlsx
+++ b/power_bi/PE_PowerBI_2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellifabio\Desktop\senai2026\power_bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36630E31-CF89-4649-9DB9-BA703F64B295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC8BFB-6DF6-49EA-9196-3EE0DC04336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Ensino" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="h9gkGl1sfnRHyr05LFfZmsKJ7cUyj85gDjaHNauDRX4="/>
     </ext>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
   <si>
     <t>PLANO DE ENSINO</t>
   </si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Técnicos</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>4. Demonstrar autonomia</t>
@@ -487,6 +481,28 @@
   <si>
     <t>Avaliação Formativa - Estudo de Caso</t>
   </si>
+  <si>
+    <t>A Empresa XPTO disponibilizou dados que foram obtidos de seus sistemas, os dados são de seus clientes e suas despesas, não possuem uma estrutura básica padronizada de dados como JSON ou CSV.</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Crie indicadores que mostrem, Todos os dados, somente América do Sul e em seguida todas as Américas</t>
+  </si>
+  <si>
+    <t>B) Baixe ou importe diretamente da Web os dados da subpasta ./naoestruturados/gastos
+C) Transforme os dados e faça uma análise com um dashboard semelhante ao da imagem a seguir:</t>
+  </si>
+  <si>
+    <t>Apresente ao professor o arquivo com as análises solicitadas.</t>
+  </si>
+  <si>
+    <t>Como os dados não estão em nenhuma estrutura como CSV ou semiestrutura como XML ou JSON, são apenas arquivos TXT presentes na pasta ./naoestruturados Baixe ou importe diretamente da Web os dados da subpasta ./naoestruturados/clientes - A) Transforme os dados com Power Query e faça análise com um dashboard, conforme modelo a seguir:</t>
+  </si>
 </sst>
 </file>
 
@@ -496,7 +512,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,11 +597,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1187,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1216,23 +1227,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1245,7 +1241,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,7 +1262,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,13 +1271,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,29 +1286,293 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1327,215 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,140 +1605,82 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1785,6 +1779,133 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5127193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3" descr="paises">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44DFADC-09A6-443A-9563-69B6DD36F5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1590675"/>
+          <a:ext cx="9058275" cy="5127193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5093499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7304D5A7-91F3-49B8-8E24-526BF9E75EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7400925"/>
+          <a:ext cx="9020175" cy="5093499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1996,7 +2117,7 @@
   <dimension ref="A2:AA955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2015,162 +2136,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="141"/>
+      <c r="E3" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="131"/>
+      <c r="G3" s="138" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="135"/>
+      <c r="G4" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="57" t="s">
+      <c r="F5" s="127"/>
+      <c r="G5" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="129"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="46" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="55" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>32</v>
+      <c r="F7" s="133"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+    </row>
+    <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+    </row>
+    <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
+        <v>40</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="140" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-    </row>
-    <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>30</v>
+      <c r="C10" s="36" t="s">
+        <v>29</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="95"/>
+      <c r="J10" s="125"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2190,32 +2311,32 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141" t="s">
-        <v>53</v>
+      <c r="A11" s="38" t="s">
+        <v>52</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="33">
         <v>4</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="E11" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="145" t="s">
+      <c r="F11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="146" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="96"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2235,32 +2356,32 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="142" t="s">
-        <v>54</v>
+      <c r="A12" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="149" t="s">
-        <v>68</v>
+      <c r="C12" s="43" t="s">
+        <v>67</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="155" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="146" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="151" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="64"/>
+      <c r="J12" s="119"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2280,32 +2401,32 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="267.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="142" t="s">
-        <v>55</v>
+      <c r="A13" s="39" t="s">
+        <v>54</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="22">
         <v>4</v>
       </c>
-      <c r="C13" s="154" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="152" t="s">
+      <c r="C13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="153" t="s">
-        <v>63</v>
+      <c r="D13" s="46" t="s">
+        <v>68</v>
       </c>
-      <c r="F13" s="156" t="s">
+      <c r="E13" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="146" t="s">
-        <v>72</v>
+      <c r="G13" s="52" t="s">
+        <v>71</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="157" t="s">
-        <v>67</v>
+      <c r="H13" s="53"/>
+      <c r="I13" s="56" t="s">
+        <v>66</v>
       </c>
-      <c r="J13" s="99"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2325,32 +2446,32 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="198" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="142" t="s">
-        <v>56</v>
+      <c r="A14" s="39" t="s">
+        <v>55</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="22">
         <v>4</v>
       </c>
-      <c r="C14" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="159" t="s">
+      <c r="C14" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="153" t="s">
-        <v>63</v>
+      <c r="D14" s="51" t="s">
+        <v>72</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="E14" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="146" t="s">
-        <v>77</v>
+      <c r="G14" s="52" t="s">
+        <v>76</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="157" t="s">
-        <v>79</v>
+      <c r="H14" s="53"/>
+      <c r="I14" s="56" t="s">
+        <v>78</v>
       </c>
-      <c r="J14" s="99"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2370,32 +2491,32 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="142" t="s">
-        <v>57</v>
+      <c r="A15" s="39" t="s">
+        <v>56</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="22">
         <v>4</v>
       </c>
-      <c r="C15" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="153" t="s">
-        <v>63</v>
+      <c r="D15" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="E15" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="146" t="s">
+      <c r="G15" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="99"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2415,32 +2536,32 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="153" x14ac:dyDescent="0.2">
-      <c r="A16" s="142" t="s">
-        <v>58</v>
+      <c r="A16" s="39" t="s">
+        <v>57</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="22">
         <v>4</v>
       </c>
-      <c r="C16" s="154" t="s">
-        <v>68</v>
+      <c r="C16" s="48" t="s">
+        <v>67</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="153" t="s">
+      <c r="F16" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="156" t="s">
-        <v>10</v>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56" t="s">
+        <v>78</v>
       </c>
-      <c r="G16" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="99"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2460,32 +2581,32 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="142" t="s">
-        <v>59</v>
+      <c r="A17" s="39" t="s">
+        <v>58</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="22">
         <v>4</v>
       </c>
-      <c r="C17" s="154" t="s">
-        <v>68</v>
+      <c r="C17" s="48" t="s">
+        <v>67</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="146" t="s">
-        <v>83</v>
+      <c r="G17" s="52" t="s">
+        <v>82</v>
       </c>
-      <c r="H17" s="96"/>
-      <c r="I17" s="157" t="s">
-        <v>67</v>
+      <c r="H17" s="53"/>
+      <c r="I17" s="56" t="s">
+        <v>66</v>
       </c>
-      <c r="J17" s="99"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2505,32 +2626,32 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="153" x14ac:dyDescent="0.2">
-      <c r="A18" s="142" t="s">
-        <v>60</v>
+      <c r="A18" s="39" t="s">
+        <v>59</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="25">
         <v>4</v>
       </c>
-      <c r="C18" s="154" t="s">
-        <v>68</v>
+      <c r="C18" s="48" t="s">
+        <v>67</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="146" t="s">
-        <v>84</v>
+      <c r="G18" s="52" t="s">
+        <v>83</v>
       </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="157" t="s">
-        <v>67</v>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56" t="s">
+        <v>66</v>
       </c>
-      <c r="J18" s="99"/>
+      <c r="J18" s="57"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2550,21 +2671,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>44</v>
+      <c r="A19" s="30" t="s">
+        <v>43</v>
       </c>
-      <c r="B19" s="158">
+      <c r="B19" s="50">
         <f>SUM(B8:B18)</f>
         <v>32</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2584,18 +2705,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
-        <v>107</v>
+      <c r="A20" s="75" t="s">
+        <v>106</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="104"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2615,18 +2736,18 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105" t="s">
-        <v>37</v>
+      <c r="A21" s="78" t="s">
+        <v>36</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2646,18 +2767,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="160" t="s">
-        <v>85</v>
+      <c r="A22" s="71" t="s">
+        <v>84</v>
       </c>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2677,18 +2798,18 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105" t="s">
-        <v>38</v>
+      <c r="A23" s="78" t="s">
+        <v>37</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2708,18 +2829,18 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="160" t="s">
-        <v>86</v>
+      <c r="A24" s="71" t="s">
+        <v>85</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2739,18 +2860,18 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="105" t="s">
-        <v>39</v>
+      <c r="A25" s="78" t="s">
+        <v>38</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2770,16 +2891,16 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2798,19 +2919,19 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="164" t="s">
-        <v>87</v>
+    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="103" t="s">
+        <v>86</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="166"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2829,17 +2950,17 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
+    <row r="28" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2859,18 +2980,18 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="106" t="s">
-        <v>40</v>
+      <c r="A29" s="114" t="s">
+        <v>39</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2890,22 +3011,22 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2925,22 +3046,22 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="36">
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="31">
         <v>1</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="31">
         <v>2</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="32">
         <v>3</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="32">
         <v>4</v>
       </c>
       <c r="K31" s="5"/>
@@ -2962,20 +3083,20 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="173" t="s">
+      <c r="A32" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="180"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="78" t="s">
-        <v>92</v>
+      <c r="B32" s="97"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="165" t="s">
+        <v>91</v>
       </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2995,20 +3116,20 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="180" t="s">
-        <v>88</v>
+      <c r="A33" s="95"/>
+      <c r="B33" s="97" t="s">
+        <v>87</v>
       </c>
-      <c r="C33" s="181"/>
-      <c r="D33" s="78" t="s">
-        <v>93</v>
+      <c r="C33" s="164"/>
+      <c r="D33" s="165" t="s">
+        <v>92</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3028,18 +3149,18 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="174"/>
-      <c r="B34" s="180"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="93" t="s">
-        <v>94</v>
+      <c r="A34" s="95"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="166" t="s">
+        <v>93</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3059,20 +3180,20 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="174"/>
-      <c r="B35" s="182" t="s">
-        <v>89</v>
+      <c r="A35" s="95"/>
+      <c r="B35" s="110" t="s">
+        <v>88</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="167" t="s">
-        <v>95</v>
+      <c r="C35" s="99"/>
+      <c r="D35" s="111" t="s">
+        <v>94</v>
       </c>
-      <c r="E35" s="168"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3092,20 +3213,20 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="174"/>
-      <c r="B36" s="184" t="s">
-        <v>90</v>
+      <c r="A36" s="95"/>
+      <c r="B36" s="98" t="s">
+        <v>89</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="177" t="s">
-        <v>96</v>
+      <c r="C36" s="99"/>
+      <c r="D36" s="86" t="s">
+        <v>95</v>
       </c>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3125,20 +3246,20 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="175"/>
-      <c r="B37" s="185" t="s">
-        <v>91</v>
+      <c r="A37" s="96"/>
+      <c r="B37" s="89" t="s">
+        <v>90</v>
       </c>
-      <c r="C37" s="186"/>
-      <c r="D37" s="170" t="s">
-        <v>97</v>
+      <c r="C37" s="90"/>
+      <c r="D37" s="91" t="s">
+        <v>96</v>
       </c>
-      <c r="E37" s="171"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3158,22 +3279,22 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="88" t="s">
-        <v>36</v>
+      <c r="A38" s="172" t="s">
+        <v>35</v>
       </c>
-      <c r="B38" s="92" t="s">
-        <v>98</v>
+      <c r="B38" s="73" t="s">
+        <v>97</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="80" t="s">
-        <v>104</v>
+      <c r="C38" s="74"/>
+      <c r="D38" s="72" t="s">
+        <v>103</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3193,20 +3314,20 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="89"/>
-      <c r="B39" s="92" t="s">
-        <v>99</v>
+      <c r="A39" s="173"/>
+      <c r="B39" s="73" t="s">
+        <v>98</v>
       </c>
-      <c r="C39" s="187"/>
-      <c r="D39" s="80" t="s">
-        <v>103</v>
+      <c r="C39" s="74"/>
+      <c r="D39" s="72" t="s">
+        <v>102</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3226,20 +3347,20 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
-      <c r="B40" s="92" t="s">
-        <v>100</v>
+      <c r="A40" s="173"/>
+      <c r="B40" s="73" t="s">
+        <v>99</v>
       </c>
-      <c r="C40" s="187"/>
-      <c r="D40" s="80" t="s">
-        <v>102</v>
+      <c r="C40" s="74"/>
+      <c r="D40" s="72" t="s">
+        <v>101</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -3259,20 +3380,20 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="92" t="s">
-        <v>17</v>
+      <c r="A41" s="174"/>
+      <c r="B41" s="73" t="s">
+        <v>16</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="80" t="s">
-        <v>101</v>
+      <c r="C41" s="74"/>
+      <c r="D41" s="72" t="s">
+        <v>100</v>
       </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -3292,14 +3413,14 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3321,18 +3442,18 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="69"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3354,20 +3475,20 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="13">
         <v>5</v>
       </c>
-      <c r="B44" s="91" t="s">
-        <v>20</v>
+      <c r="B44" s="61" t="s">
+        <v>19</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="98">
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64">
         <v>100</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3389,20 +3510,20 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="13">
         <v>4</v>
       </c>
-      <c r="B45" s="176" t="s">
-        <v>106</v>
+      <c r="B45" s="80" t="s">
+        <v>105</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="98">
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64">
         <v>80</v>
       </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="77"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="63"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3424,20 +3545,20 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="13">
         <v>3</v>
       </c>
-      <c r="B46" s="176" t="s">
-        <v>105</v>
+      <c r="B46" s="80" t="s">
+        <v>104</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="98">
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64">
         <v>65</v>
       </c>
-      <c r="G46" s="76"/>
-      <c r="H46" s="77"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3459,20 +3580,20 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="13">
         <v>2</v>
       </c>
-      <c r="B47" s="97" t="s">
-        <v>21</v>
+      <c r="B47" s="79" t="s">
+        <v>20</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="98">
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64">
         <v>50</v>
       </c>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="63"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3494,20 +3615,20 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="13">
         <v>1</v>
       </c>
-      <c r="B48" s="91" t="s">
-        <v>22</v>
+      <c r="B48" s="61" t="s">
+        <v>21</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="98">
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="64">
         <v>30</v>
       </c>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="63"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3529,14 +3650,14 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3558,20 +3679,20 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="31" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="F50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3593,23 +3714,23 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="32" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="65">
+        <v>1</v>
+      </c>
+      <c r="F51" s="65">
+        <v>0</v>
+      </c>
+      <c r="G51" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="110">
-        <v>1</v>
-      </c>
-      <c r="F51" s="110">
-        <v>0</v>
-      </c>
-      <c r="G51" s="108" t="s">
+      <c r="H51" s="69" t="s">
         <v>27</v>
-      </c>
-      <c r="H51" s="113" t="s">
-        <v>28</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3632,16 +3753,16 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="42" t="s">
-        <v>29</v>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="37" t="s">
+        <v>28</v>
       </c>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="114"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="70"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3663,18 +3784,18 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="109" t="s">
-        <v>45</v>
+      <c r="A53" s="60" t="s">
+        <v>44</v>
       </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3694,16 +3815,16 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -29853,43 +29974,41 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A53:J54"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="A42:H42"/>
@@ -29906,47 +30025,49 @@
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A30:C31"/>
     <mergeCell ref="D30:F31"/>
     <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A53:J54"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -29956,36 +30077,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z990"/>
+  <dimension ref="A1:AA976"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:E44"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="35.375" customWidth="1"/>
     <col min="7" max="7" width="3.125" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="15" width="8" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="8" customWidth="1"/>
     <col min="16" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>108</v>
+    <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
+        <v>107</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -30005,17 +30128,17 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>37</v>
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="160" t="s">
+        <v>36</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="130"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -30035,15 +30158,17 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+    <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -30063,15 +30188,17 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+    <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -30091,15 +30218,17 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+    <row r="5" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="167" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -30119,16 +30248,15 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="7"/>
+    <row r="6" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -30147,17 +30275,17 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
-        <v>38</v>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="167" t="s">
+        <v>111</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -30177,15 +30305,17 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+    <row r="8" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -30205,15 +30335,15 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+    <row r="9" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="178"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -30233,50 +30363,53 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="7"/>
+    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="167" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -30289,15 +30422,17 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="168"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -30317,52 +30452,62 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="131" t="s">
-        <v>39</v>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="157" t="s">
+        <v>11</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-    </row>
-    <row r="14" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="151"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="170" t="s">
+        <v>110</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -30375,310 +30520,346 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="126" t="s">
+    <row r="15" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="16" t="s">
+      <c r="B15" s="97"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="122"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="95"/>
+      <c r="B16" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="122"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="95"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="122"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="95"/>
+      <c r="B18" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="95"/>
+      <c r="B19" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="96"/>
+      <c r="B20" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="173"/>
+      <c r="B22" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="173"/>
+      <c r="B23" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="174"/>
+      <c r="B24" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="16" t="s">
-        <v>16</v>
+      <c r="C24" s="74"/>
+      <c r="D24" s="72" t="s">
+        <v>100</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -30697,18 +30878,20 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="16" t="s">
-        <v>16</v>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
+        <v>17</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -30727,18 +30910,22 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="16" t="s">
-        <v>16</v>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>5</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64">
+        <v>100</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -30757,18 +30944,22 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="16" t="s">
-        <v>16</v>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>4</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64">
+        <v>80</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -30787,18 +30978,22 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="16" t="s">
-        <v>16</v>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>3</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64">
+        <v>65</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -30817,18 +31012,22 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="16" t="s">
-        <v>16</v>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>2</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64">
+        <v>50</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -30847,18 +31046,22 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="16" t="s">
-        <v>16</v>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>1</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64">
+        <v>30</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -30877,18 +31080,16 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="16" t="s">
-        <v>16</v>
-      </c>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -30907,18 +31108,22 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="16" t="s">
-        <v>16</v>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19" t="s">
+        <v>22</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="8"/>
+      <c r="E33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -30938,19 +31143,25 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="117" t="s">
-        <v>36</v>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="20" t="s">
+        <v>25</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="16" t="s">
-        <v>16</v>
+      <c r="E34" s="163">
+        <v>1</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="8"/>
+      <c r="F34" s="163">
+        <v>0</v>
+      </c>
+      <c r="G34" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -30970,17 +31181,17 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="16" t="s">
-        <v>16</v>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="21" t="s">
+        <v>28</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="8"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -31000,17 +31211,15 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -31030,17 +31239,15 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -31060,17 +31267,15 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -31118,18 +31323,14 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="69"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -31150,20 +31351,14 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
-        <v>5</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="98">
-        <v>100</v>
-      </c>
-      <c r="G41" s="76"/>
-      <c r="H41" s="77"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -31184,20 +31379,14 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
-        <v>4</v>
-      </c>
-      <c r="B42" s="176" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="98">
-        <v>80</v>
-      </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -31218,20 +31407,14 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
-        <v>3</v>
-      </c>
-      <c r="B43" s="176" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="98">
-        <v>65</v>
-      </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="77"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -31252,20 +31435,14 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
-        <v>2</v>
-      </c>
-      <c r="B44" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="98">
-        <v>50</v>
-      </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -31286,20 +31463,14 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
-        <v>1</v>
-      </c>
-      <c r="B45" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="98">
-        <v>30</v>
-      </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="77"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -31320,14 +31491,14 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -31348,20 +31519,14 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -31382,24 +31547,14 @@
       <c r="Z47" s="8"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="116">
-        <v>1</v>
-      </c>
-      <c r="F48" s="116">
-        <v>0</v>
-      </c>
-      <c r="G48" s="135" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="137" t="s">
-        <v>28</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -31420,16 +31575,14 @@
       <c r="Z48" s="8"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="138"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -31450,14 +31603,14 @@
       <c r="Z49" s="8"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -36125,408 +36278,30 @@
       <c r="Y216" s="8"/>
       <c r="Z216" s="8"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="7"/>
-      <c r="J217" s="8"/>
-      <c r="K217" s="8"/>
-      <c r="L217" s="8"/>
-      <c r="M217" s="8"/>
-      <c r="N217" s="8"/>
-      <c r="O217" s="8"/>
-      <c r="P217" s="8"/>
-      <c r="Q217" s="8"/>
-      <c r="R217" s="8"/>
-      <c r="S217" s="8"/>
-      <c r="T217" s="8"/>
-      <c r="U217" s="8"/>
-      <c r="V217" s="8"/>
-      <c r="W217" s="8"/>
-      <c r="X217" s="8"/>
-      <c r="Y217" s="8"/>
-      <c r="Z217" s="8"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="8"/>
-      <c r="K218" s="8"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="8"/>
-      <c r="N218" s="8"/>
-      <c r="O218" s="8"/>
-      <c r="P218" s="8"/>
-      <c r="Q218" s="8"/>
-      <c r="R218" s="8"/>
-      <c r="S218" s="8"/>
-      <c r="T218" s="8"/>
-      <c r="U218" s="8"/>
-      <c r="V218" s="8"/>
-      <c r="W218" s="8"/>
-      <c r="X218" s="8"/>
-      <c r="Y218" s="8"/>
-      <c r="Z218" s="8"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-      <c r="Q219" s="8"/>
-      <c r="R219" s="8"/>
-      <c r="S219" s="8"/>
-      <c r="T219" s="8"/>
-      <c r="U219" s="8"/>
-      <c r="V219" s="8"/>
-      <c r="W219" s="8"/>
-      <c r="X219" s="8"/>
-      <c r="Y219" s="8"/>
-      <c r="Z219" s="8"/>
-    </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="7"/>
-      <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-      <c r="M220" s="8"/>
-      <c r="N220" s="8"/>
-      <c r="O220" s="8"/>
-      <c r="P220" s="8"/>
-      <c r="Q220" s="8"/>
-      <c r="R220" s="8"/>
-      <c r="S220" s="8"/>
-      <c r="T220" s="8"/>
-      <c r="U220" s="8"/>
-      <c r="V220" s="8"/>
-      <c r="W220" s="8"/>
-      <c r="X220" s="8"/>
-      <c r="Y220" s="8"/>
-      <c r="Z220" s="8"/>
-    </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="7"/>
-      <c r="J221" s="8"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="8"/>
-      <c r="M221" s="8"/>
-      <c r="N221" s="8"/>
-      <c r="O221" s="8"/>
-      <c r="P221" s="8"/>
-      <c r="Q221" s="8"/>
-      <c r="R221" s="8"/>
-      <c r="S221" s="8"/>
-      <c r="T221" s="8"/>
-      <c r="U221" s="8"/>
-      <c r="V221" s="8"/>
-      <c r="W221" s="8"/>
-      <c r="X221" s="8"/>
-      <c r="Y221" s="8"/>
-      <c r="Z221" s="8"/>
-    </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="7"/>
-      <c r="J222" s="8"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="8"/>
-      <c r="N222" s="8"/>
-      <c r="O222" s="8"/>
-      <c r="P222" s="8"/>
-      <c r="Q222" s="8"/>
-      <c r="R222" s="8"/>
-      <c r="S222" s="8"/>
-      <c r="T222" s="8"/>
-      <c r="U222" s="8"/>
-      <c r="V222" s="8"/>
-      <c r="W222" s="8"/>
-      <c r="X222" s="8"/>
-      <c r="Y222" s="8"/>
-      <c r="Z222" s="8"/>
-    </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="7"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="8"/>
-      <c r="N223" s="8"/>
-      <c r="O223" s="8"/>
-      <c r="P223" s="8"/>
-      <c r="Q223" s="8"/>
-      <c r="R223" s="8"/>
-      <c r="S223" s="8"/>
-      <c r="T223" s="8"/>
-      <c r="U223" s="8"/>
-      <c r="V223" s="8"/>
-      <c r="W223" s="8"/>
-      <c r="X223" s="8"/>
-      <c r="Y223" s="8"/>
-      <c r="Z223" s="8"/>
-    </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="7"/>
-      <c r="J224" s="8"/>
-      <c r="K224" s="8"/>
-      <c r="L224" s="8"/>
-      <c r="M224" s="8"/>
-      <c r="N224" s="8"/>
-      <c r="O224" s="8"/>
-      <c r="P224" s="8"/>
-      <c r="Q224" s="8"/>
-      <c r="R224" s="8"/>
-      <c r="S224" s="8"/>
-      <c r="T224" s="8"/>
-      <c r="U224" s="8"/>
-      <c r="V224" s="8"/>
-      <c r="W224" s="8"/>
-      <c r="X224" s="8"/>
-      <c r="Y224" s="8"/>
-      <c r="Z224" s="8"/>
-    </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="7"/>
-      <c r="J225" s="8"/>
-      <c r="K225" s="8"/>
-      <c r="L225" s="8"/>
-      <c r="M225" s="8"/>
-      <c r="N225" s="8"/>
-      <c r="O225" s="8"/>
-      <c r="P225" s="8"/>
-      <c r="Q225" s="8"/>
-      <c r="R225" s="8"/>
-      <c r="S225" s="8"/>
-      <c r="T225" s="8"/>
-      <c r="U225" s="8"/>
-      <c r="V225" s="8"/>
-      <c r="W225" s="8"/>
-      <c r="X225" s="8"/>
-      <c r="Y225" s="8"/>
-      <c r="Z225" s="8"/>
-    </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="8"/>
-      <c r="K226" s="8"/>
-      <c r="L226" s="8"/>
-      <c r="M226" s="8"/>
-      <c r="N226" s="8"/>
-      <c r="O226" s="8"/>
-      <c r="P226" s="8"/>
-      <c r="Q226" s="8"/>
-      <c r="R226" s="8"/>
-      <c r="S226" s="8"/>
-      <c r="T226" s="8"/>
-      <c r="U226" s="8"/>
-      <c r="V226" s="8"/>
-      <c r="W226" s="8"/>
-      <c r="X226" s="8"/>
-      <c r="Y226" s="8"/>
-      <c r="Z226" s="8"/>
-    </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="8"/>
-      <c r="K227" s="8"/>
-      <c r="L227" s="8"/>
-      <c r="M227" s="8"/>
-      <c r="N227" s="8"/>
-      <c r="O227" s="8"/>
-      <c r="P227" s="8"/>
-      <c r="Q227" s="8"/>
-      <c r="R227" s="8"/>
-      <c r="S227" s="8"/>
-      <c r="T227" s="8"/>
-      <c r="U227" s="8"/>
-      <c r="V227" s="8"/>
-      <c r="W227" s="8"/>
-      <c r="X227" s="8"/>
-      <c r="Y227" s="8"/>
-      <c r="Z227" s="8"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="8"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="8"/>
-      <c r="M228" s="8"/>
-      <c r="N228" s="8"/>
-      <c r="O228" s="8"/>
-      <c r="P228" s="8"/>
-      <c r="Q228" s="8"/>
-      <c r="R228" s="8"/>
-      <c r="S228" s="8"/>
-      <c r="T228" s="8"/>
-      <c r="U228" s="8"/>
-      <c r="V228" s="8"/>
-      <c r="W228" s="8"/>
-      <c r="X228" s="8"/>
-      <c r="Y228" s="8"/>
-      <c r="Z228" s="8"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="8"/>
-      <c r="K229" s="8"/>
-      <c r="L229" s="8"/>
-      <c r="M229" s="8"/>
-      <c r="N229" s="8"/>
-      <c r="O229" s="8"/>
-      <c r="P229" s="8"/>
-      <c r="Q229" s="8"/>
-      <c r="R229" s="8"/>
-      <c r="S229" s="8"/>
-      <c r="T229" s="8"/>
-      <c r="U229" s="8"/>
-      <c r="V229" s="8"/>
-      <c r="W229" s="8"/>
-      <c r="X229" s="8"/>
-      <c r="Y229" s="8"/>
-      <c r="Z229" s="8"/>
-    </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="8"/>
-      <c r="K230" s="8"/>
-      <c r="L230" s="8"/>
-      <c r="M230" s="8"/>
-      <c r="N230" s="8"/>
-      <c r="O230" s="8"/>
-      <c r="P230" s="8"/>
-      <c r="Q230" s="8"/>
-      <c r="R230" s="8"/>
-      <c r="S230" s="8"/>
-      <c r="T230" s="8"/>
-      <c r="U230" s="8"/>
-      <c r="V230" s="8"/>
-      <c r="W230" s="8"/>
-      <c r="X230" s="8"/>
-      <c r="Y230" s="8"/>
-      <c r="Z230" s="8"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37263,87 +37038,64 @@
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
+  <mergeCells count="53">
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="D13:G14"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>